--- a/Bill of materials/Bill of materials.xlsx
+++ b/Bill of materials/Bill of materials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Component</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Total cost</t>
+  </si>
+  <si>
+    <t>Screw connectors</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G37"/>
+  <dimension ref="B4:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +566,7 @@
         <v>21.22</v>
       </c>
       <c r="F5">
-        <f>C5*E5</f>
+        <f t="shared" ref="F5:F11" si="0">C5*E5</f>
         <v>21.22</v>
       </c>
       <c r="G5" s="2"/>
@@ -582,7 +585,7 @@
         <v>24.3</v>
       </c>
       <c r="F6">
-        <f>C6*E6</f>
+        <f t="shared" si="0"/>
         <v>24.3</v>
       </c>
     </row>
@@ -601,7 +604,7 @@
         <v>2.9319999999999999</v>
       </c>
       <c r="F7">
-        <f>C7*E7</f>
+        <f t="shared" si="0"/>
         <v>11.728</v>
       </c>
       <c r="G7" s="2"/>
@@ -621,7 +624,7 @@
         <v>0.13</v>
       </c>
       <c r="F8">
-        <f>C8*E8</f>
+        <f t="shared" si="0"/>
         <v>2.21</v>
       </c>
       <c r="G8" s="2"/>
@@ -641,7 +644,7 @@
         <v>0.13880000000000001</v>
       </c>
       <c r="F9">
-        <f>C9*E9</f>
+        <f t="shared" si="0"/>
         <v>0.83279999999999998</v>
       </c>
       <c r="G9" s="2"/>
@@ -660,7 +663,7 @@
         <v>1.4450000000000001</v>
       </c>
       <c r="F10">
-        <f>C10*E10</f>
+        <f t="shared" si="0"/>
         <v>1.4450000000000001</v>
       </c>
       <c r="G10" s="2"/>
@@ -680,7 +683,7 @@
         <v>0.29949999999999999</v>
       </c>
       <c r="F11">
-        <f>C11*E11</f>
+        <f t="shared" si="0"/>
         <v>2.3959999999999999</v>
       </c>
       <c r="G11" s="2"/>
@@ -699,7 +702,7 @@
         <v>6.59</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F22" si="0">C12*E12</f>
+        <f t="shared" ref="F12:F23" si="1">C12*E12</f>
         <v>6.59</v>
       </c>
     </row>
@@ -717,7 +720,7 @@
         <v>0.3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="G13" s="2"/>
@@ -736,7 +739,7 @@
         <v>4.99</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.99</v>
       </c>
       <c r="G14" s="2"/>
@@ -755,7 +758,7 @@
         <v>14.8</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.8</v>
       </c>
       <c r="G15" s="2"/>
@@ -774,7 +777,7 @@
         <v>14.99</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.99</v>
       </c>
       <c r="G16" s="2"/>
@@ -794,7 +797,7 @@
         <v>5.7350000000000003</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7350000000000003</v>
       </c>
       <c r="G17" s="2"/>
@@ -813,7 +816,7 @@
         <v>14.99</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.99</v>
       </c>
       <c r="G18" s="2"/>
@@ -833,7 +836,7 @@
         <v>0.44950000000000001</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44950000000000001</v>
       </c>
       <c r="G19" s="2"/>
@@ -852,7 +855,7 @@
         <v>22.99</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.99</v>
       </c>
       <c r="G20" s="2"/>
@@ -871,91 +874,97 @@
         <v>21.99</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.99</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <f>9.99/30</f>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
         <f>4.99/10</f>
         <v>0.499</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
+      <c r="F23">
+        <f t="shared" si="1"/>
         <v>0.998</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <f>(30/1000)*70</f>
         <v>2.1</v>
       </c>
-      <c r="F24" s="6">
-        <f>E24</f>
+      <c r="F25" s="6">
+        <f>E25</f>
         <v>2.1</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -966,7 +975,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -980,27 +989,21 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="6">
-        <v>9.36</v>
-      </c>
-      <c r="F28" s="6">
-        <v>9.36</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1008,16 +1011,22 @@
       <c r="D29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
+      <c r="E29" s="6">
+        <v>9.36</v>
+      </c>
+      <c r="F29" s="6">
+        <v>9.36</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>31</v>
@@ -1028,7 +1037,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1042,10 +1051,10 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>31</v>
@@ -1056,7 +1065,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1070,10 +1079,10 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>31</v>
@@ -1084,7 +1093,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1098,7 +1107,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1111,22 +1120,36 @@
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E37" s="3" t="s">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="3">
-        <f>SUM(F17:F36,F5:F15)</f>
-        <v>179.7243</v>
+      <c r="F38" s="3">
+        <f>SUM(F17:F37,F5:F15)</f>
+        <v>181.05629999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="E28:E36"/>
-    <mergeCell ref="F28:F36"/>
-    <mergeCell ref="G28:G36"/>
-    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="F29:F37"/>
+    <mergeCell ref="G29:G37"/>
+    <mergeCell ref="G25:G28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1"/>
@@ -1143,14 +1166,15 @@
     <hyperlink ref="D20" r:id="rId12"/>
     <hyperlink ref="D21" r:id="rId13"/>
     <hyperlink ref="D11" r:id="rId14"/>
-    <hyperlink ref="D23" r:id="rId15"/>
+    <hyperlink ref="D24" r:id="rId15"/>
     <hyperlink ref="D8" r:id="rId16"/>
     <hyperlink ref="D9" r:id="rId17"/>
     <hyperlink ref="D10" r:id="rId18"/>
-    <hyperlink ref="D28:D36" r:id="rId19" display="Laser cut/3D printed"/>
-    <hyperlink ref="D22" r:id="rId20"/>
+    <hyperlink ref="D29:D37" r:id="rId19" display="Laser cut/3D printed"/>
+    <hyperlink ref="D23" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Bill of materials/Bill of materials.xlsx
+++ b/Bill of materials/Bill of materials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Component</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Screw connectors</t>
+  </si>
+  <si>
+    <t>Rotary encoder</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G38"/>
+  <dimension ref="B4:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +569,7 @@
         <v>21.22</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F11" si="0">C5*E5</f>
+        <f t="shared" ref="F5:F12" si="0">C5*E5</f>
         <v>21.22</v>
       </c>
       <c r="G5" s="2"/>
@@ -669,316 +672,321 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1.62</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.62</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
         <f>5.99/20</f>
         <v>0.29949999999999999</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>2.3959999999999999</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
         <v>6.59</v>
       </c>
-      <c r="F12">
-        <f t="shared" ref="F12:F23" si="1">C12*E12</f>
+      <c r="F13">
+        <f t="shared" ref="F13:F24" si="1">C13*E13</f>
         <v>6.59</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
         <v>0.3</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
         <v>4.99</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>4.99</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
         <v>14.8</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>14.8</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
         <v>14.99</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>14.99</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
         <f>11.47/2</f>
         <v>5.7350000000000003</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>5.7350000000000003</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
         <v>14.99</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>14.99</v>
       </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
         <f>8.99/20</f>
         <v>0.44950000000000001</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>0.44950000000000001</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
         <v>22.99</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>22.99</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
         <v>21.99</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>21.99</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
         <f>9.99/30</f>
         <v>0.33300000000000002</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>1.3320000000000001</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
+      <c r="D24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
         <f>4.99/10</f>
         <v>0.499</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <f t="shared" si="1"/>
         <v>0.998</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <f>(30/1000)*70</f>
         <v>2.1</v>
       </c>
-      <c r="F25" s="6">
-        <f>E25</f>
+      <c r="F26" s="6">
+        <f>E26</f>
         <v>2.1</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -989,7 +997,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1003,27 +1011,21 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="6">
-        <v>9.36</v>
-      </c>
-      <c r="F29" s="6">
-        <v>9.36</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1031,16 +1033,22 @@
       <c r="D30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
+      <c r="E30" s="6">
+        <v>9.36</v>
+      </c>
+      <c r="F30" s="6">
+        <v>9.36</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>31</v>
@@ -1051,7 +1059,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1065,10 +1073,10 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>31</v>
@@ -1079,7 +1087,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1093,10 +1101,10 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>31</v>
@@ -1107,7 +1115,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1121,7 +1129,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1134,47 +1142,62 @@
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E38" s="3" t="s">
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="3">
-        <f>SUM(F17:F37,F5:F15)</f>
-        <v>181.05629999999999</v>
+      <c r="F39" s="3">
+        <f>SUM(F18:F38,F5:F16)</f>
+        <v>182.6763</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="F29:F37"/>
-    <mergeCell ref="G29:G37"/>
-    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E30:E38"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="G30:G38"/>
+    <mergeCell ref="G26:G29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="D12" r:id="rId5"/>
-    <hyperlink ref="D15" r:id="rId6"/>
-    <hyperlink ref="D16" r:id="rId7"/>
-    <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D18" r:id="rId9"/>
+    <hyperlink ref="D14" r:id="rId3"/>
+    <hyperlink ref="D15" r:id="rId4"/>
+    <hyperlink ref="D13" r:id="rId5"/>
+    <hyperlink ref="D16" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="D18" r:id="rId8"/>
+    <hyperlink ref="D19" r:id="rId9"/>
     <hyperlink ref="D7" r:id="rId10"/>
-    <hyperlink ref="D19" r:id="rId11"/>
-    <hyperlink ref="D20" r:id="rId12"/>
-    <hyperlink ref="D21" r:id="rId13"/>
-    <hyperlink ref="D11" r:id="rId14"/>
-    <hyperlink ref="D24" r:id="rId15"/>
+    <hyperlink ref="D20" r:id="rId11"/>
+    <hyperlink ref="D21" r:id="rId12"/>
+    <hyperlink ref="D22" r:id="rId13"/>
+    <hyperlink ref="D12" r:id="rId14"/>
+    <hyperlink ref="D25" r:id="rId15"/>
     <hyperlink ref="D8" r:id="rId16"/>
     <hyperlink ref="D9" r:id="rId17"/>
     <hyperlink ref="D10" r:id="rId18"/>
-    <hyperlink ref="D29:D37" r:id="rId19" display="Laser cut/3D printed"/>
-    <hyperlink ref="D23" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D30:D38" r:id="rId19" display="Laser cut/3D printed"/>
+    <hyperlink ref="D24" r:id="rId20"/>
+    <hyperlink ref="D23" r:id="rId21"/>
+    <hyperlink ref="D11" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Bill of materials/Bill of materials.xlsx
+++ b/Bill of materials/Bill of materials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Component</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Rotary encoder</t>
+  </si>
+  <si>
+    <t>Barrel jack</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -235,11 +238,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -521,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G39"/>
+  <dimension ref="B4:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,10 +570,10 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>21.22</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F12" si="0">C5*E5</f>
         <v>21.22</v>
       </c>
@@ -584,10 +589,10 @@
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>24.3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>24.3</v>
       </c>
@@ -602,11 +607,11 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <f>29.32/10</f>
         <v>2.9319999999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>11.728</v>
       </c>
@@ -623,10 +628,10 @@
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>0.13</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>2.21</v>
       </c>
@@ -642,11 +647,11 @@
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <f>6.94/50</f>
         <v>0.13880000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>0.83279999999999998</v>
       </c>
@@ -662,10 +667,10 @@
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>1.4450000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>1.4450000000000001</v>
       </c>
@@ -681,10 +686,10 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>1.62</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>1.62</v>
       </c>
@@ -700,11 +705,11 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <f>5.99/20</f>
         <v>0.29949999999999999</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>2.3959999999999999</v>
       </c>
@@ -720,11 +725,11 @@
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>6.59</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F24" si="1">C13*E13</f>
+      <c r="F13" s="7">
+        <f t="shared" ref="F13:F25" si="1">C13*E13</f>
         <v>6.59</v>
       </c>
     </row>
@@ -738,10 +743,10 @@
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>0.3</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
@@ -757,10 +762,10 @@
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>4.99</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <f t="shared" si="1"/>
         <v>4.99</v>
       </c>
@@ -776,10 +781,10 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>14.8</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <f t="shared" si="1"/>
         <v>14.8</v>
       </c>
@@ -795,10 +800,10 @@
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>14.99</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <f t="shared" si="1"/>
         <v>14.99</v>
       </c>
@@ -814,11 +819,11 @@
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <f>11.47/2</f>
         <v>5.7350000000000003</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <f t="shared" si="1"/>
         <v>5.7350000000000003</v>
       </c>
@@ -834,10 +839,10 @@
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>14.99</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <f t="shared" si="1"/>
         <v>14.99</v>
       </c>
@@ -853,11 +858,11 @@
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <f>8.99/20</f>
         <v>0.44950000000000001</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <f t="shared" si="1"/>
         <v>0.44950000000000001</v>
       </c>
@@ -873,10 +878,10 @@
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>22.99</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <f t="shared" si="1"/>
         <v>22.99</v>
       </c>
@@ -892,10 +897,10 @@
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>21.99</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <f t="shared" si="1"/>
         <v>21.99</v>
       </c>
@@ -911,11 +916,11 @@
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <f>9.99/30</f>
         <v>0.33300000000000002</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <f t="shared" si="1"/>
         <v>1.3320000000000001</v>
       </c>
@@ -931,11 +936,11 @@
       <c r="D24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <f>4.99/10</f>
         <v>0.499</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <f t="shared" si="1"/>
         <v>0.998</v>
       </c>
@@ -943,75 +948,81 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
+      <c r="D25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="7">
+        <f>4.51/45</f>
+        <v>0.10022222222222221</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10022222222222221</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="7">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="8">
         <f>(30/1000)*70</f>
         <v>2.1</v>
       </c>
-      <c r="F26" s="6">
-        <f>E26</f>
+      <c r="F27" s="8">
+        <f>E27</f>
         <v>2.1</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1019,33 +1030,27 @@
       <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="6">
-        <v>9.36</v>
-      </c>
-      <c r="F30" s="6">
-        <v>9.36</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1053,27 +1058,33 @@
       <c r="D31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
+      <c r="E31" s="8">
+        <v>9.36</v>
+      </c>
+      <c r="F31" s="8">
+        <v>9.36</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1081,27 +1092,27 @@
       <c r="D33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1109,27 +1120,27 @@
       <c r="D35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1137,13 +1148,13 @@
       <c r="D37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1151,27 +1162,41 @@
       <c r="D38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E39" s="3" t="s">
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="3">
-        <f>SUM(F18:F38,F5:F16)</f>
-        <v>182.6763</v>
+      <c r="F40" s="9">
+        <f>SUM(F18:F39,F5:F16)</f>
+        <v>182.77652222222224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E30:E38"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="G30:G38"/>
-    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="E31:E39"/>
+    <mergeCell ref="F31:F39"/>
+    <mergeCell ref="G31:G39"/>
+    <mergeCell ref="G27:G30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1"/>
@@ -1188,16 +1213,17 @@
     <hyperlink ref="D21" r:id="rId12"/>
     <hyperlink ref="D22" r:id="rId13"/>
     <hyperlink ref="D12" r:id="rId14"/>
-    <hyperlink ref="D25" r:id="rId15"/>
+    <hyperlink ref="D26" r:id="rId15"/>
     <hyperlink ref="D8" r:id="rId16"/>
     <hyperlink ref="D9" r:id="rId17"/>
     <hyperlink ref="D10" r:id="rId18"/>
-    <hyperlink ref="D30:D38" r:id="rId19" display="Laser cut/3D printed"/>
+    <hyperlink ref="D31:D39" r:id="rId19" display="Laser cut/3D printed"/>
     <hyperlink ref="D24" r:id="rId20"/>
     <hyperlink ref="D23" r:id="rId21"/>
     <hyperlink ref="D11" r:id="rId22"/>
+    <hyperlink ref="D25" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>